--- a/Finflux Automation Excels/Client/5010-WithoutInterestRecalculation-DisbAllTranche-EARLYREPAY-DISBTOPUP-Verify.xlsx
+++ b/Finflux Automation Excels/Client/5010-WithoutInterestRecalculation-DisbAllTranche-EARLYREPAY-DISBTOPUP-Verify.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -323,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +357,21 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -408,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -442,6 +457,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1200,97 +1228,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="20"/>
+    <col min="3" max="3" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="20"/>
+    <col min="7" max="7" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="19" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="21">
         <v>59</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="22">
         <v>42095</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="23" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="21">
         <v>60</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="22">
         <v>42095</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1556,7 +1587,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>350</v>
+        <v>352.83</v>
       </c>
       <c r="B3" s="15">
         <v>0</v>
@@ -1565,7 +1596,7 @@
         <v>100</v>
       </c>
       <c r="D3" s="15">
-        <v>250</v>
+        <v>252.83</v>
       </c>
       <c r="E3" s="15">
         <v>0</v>
@@ -1624,7 +1655,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,10 +1699,10 @@
       <c r="L1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="13"/>
       <c r="O1" s="13" t="s">
         <v>62</v>
       </c>
@@ -1725,11 +1756,11 @@
         <v>42095</v>
       </c>
       <c r="E3" s="17"/>
-      <c r="F3" s="14">
-        <v>1625</v>
-      </c>
-      <c r="G3" s="14">
-        <v>8375</v>
+      <c r="F3" s="18">
+        <v>1627.83</v>
+      </c>
+      <c r="G3" s="18">
+        <v>8372.17</v>
       </c>
       <c r="H3" s="15">
         <v>100</v>
@@ -1740,16 +1771,16 @@
       <c r="J3" s="15">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
-        <v>1725</v>
+      <c r="K3" s="18">
+        <v>1727.83</v>
       </c>
       <c r="L3" s="15">
         <v>0</v>
       </c>
-      <c r="M3" s="15">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15">
+        <v>0</v>
+      </c>
       <c r="O3" s="15">
         <v>0</v>
       </c>
@@ -1775,13 +1806,13 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18">
-        <v>1641.25</v>
+        <v>1641.28</v>
       </c>
       <c r="G4" s="18">
-        <v>6733.75</v>
+        <v>6730.89</v>
       </c>
       <c r="H4" s="15">
-        <v>83.75</v>
+        <v>83.72</v>
       </c>
       <c r="I4" s="15">
         <v>0</v>
@@ -1795,10 +1826,10 @@
       <c r="L4" s="15">
         <v>0</v>
       </c>
-      <c r="M4" s="15">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
       <c r="O4" s="15">
         <v>0</v>
       </c>
@@ -1824,13 +1855,13 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18">
-        <v>1657.66</v>
+        <v>1657.69</v>
       </c>
       <c r="G5" s="18">
-        <v>5076.09</v>
+        <v>5073.2</v>
       </c>
       <c r="H5" s="15">
-        <v>67.34</v>
+        <v>67.31</v>
       </c>
       <c r="I5" s="15">
         <v>0</v>
@@ -1844,10 +1875,10 @@
       <c r="L5" s="15">
         <v>0</v>
       </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
       <c r="O5" s="15">
         <v>0</v>
       </c>
@@ -1873,13 +1904,13 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="18">
-        <v>1674.24</v>
+        <v>1674.27</v>
       </c>
       <c r="G6" s="18">
-        <v>3401.85</v>
+        <v>3398.93</v>
       </c>
       <c r="H6" s="15">
-        <v>50.76</v>
+        <v>50.73</v>
       </c>
       <c r="I6" s="15">
         <v>0</v>
@@ -1893,10 +1924,10 @@
       <c r="L6" s="15">
         <v>0</v>
       </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
       <c r="O6" s="15">
         <v>0</v>
       </c>
@@ -1922,13 +1953,13 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="18">
-        <v>1690.98</v>
+        <v>1691.01</v>
       </c>
       <c r="G7" s="18">
-        <v>1710.87</v>
+        <v>1707.92</v>
       </c>
       <c r="H7" s="15">
-        <v>34.020000000000003</v>
+        <v>33.99</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
@@ -1942,10 +1973,10 @@
       <c r="L7" s="15">
         <v>0</v>
       </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
       <c r="O7" s="15">
         <v>0</v>
       </c>
@@ -1971,13 +2002,13 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18">
-        <v>1710.87</v>
+        <v>1707.92</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="15">
-        <v>14.13</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="I8" s="15">
         <v>0</v>
@@ -1991,10 +2022,10 @@
       <c r="L8" s="15">
         <v>0</v>
       </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
       <c r="O8" s="15">
         <v>0</v>
       </c>
@@ -2014,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,7 +2090,7 @@
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>394</v>
+        <v>74</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>69</v>
@@ -2070,8 +2101,8 @@
       <c r="D2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="14">
-        <v>10250</v>
+      <c r="E2" s="18">
+        <v>10252.83</v>
       </c>
       <c r="F2" s="14">
         <v>10000</v>
@@ -2093,7 +2124,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>393</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>69</v>
@@ -2127,7 +2158,7 @@
     </row>
     <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>392</v>
+        <v>72</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>69</v>
@@ -2161,7 +2192,7 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>391</v>
+        <v>71</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>69</v>
@@ -2195,7 +2226,7 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>387</v>
+        <v>67</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>69</v>
